--- a/Code/Results/Cases/Case_2_122/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_122/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.567979309485736</v>
+        <v>1.218619848223113</v>
       </c>
       <c r="C2">
-        <v>0.9780967436013555</v>
+        <v>0.31505200208872</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.011373552222736</v>
+        <v>0.7874601494623903</v>
       </c>
       <c r="F2">
-        <v>1.828083043909274</v>
+        <v>2.040269078299843</v>
       </c>
       <c r="G2">
-        <v>0.0007793350997081449</v>
+        <v>0.002390410017571003</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.05954268878715396</v>
+        <v>0.2888127484026981</v>
       </c>
       <c r="J2">
-        <v>0.01120759786513759</v>
+        <v>0.02711371948510966</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5868654644307014</v>
+        <v>1.391930064394046</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.107488996786913</v>
+        <v>1.070181160103346</v>
       </c>
       <c r="C3">
-        <v>0.855096113434513</v>
+        <v>0.2751751077511813</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.8896079334008817</v>
+        <v>0.7574822573187987</v>
       </c>
       <c r="F3">
-        <v>1.640382656697753</v>
+        <v>2.012894732451471</v>
       </c>
       <c r="G3">
-        <v>0.0007837492527501215</v>
+        <v>0.002393173187529599</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.07267142606363608</v>
+        <v>0.2984102864338833</v>
       </c>
       <c r="J3">
-        <v>0.01107015630701369</v>
+        <v>0.02766705527879587</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5789378223911683</v>
+        <v>1.419590983600742</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.824963368356634</v>
+        <v>0.9787304581741409</v>
       </c>
       <c r="C4">
-        <v>0.7796140107699898</v>
+        <v>0.2505851961521728</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.8157386227715762</v>
+        <v>0.7393691555516</v>
       </c>
       <c r="F4">
-        <v>1.528983471271488</v>
+        <v>1.99753969922665</v>
       </c>
       <c r="G4">
-        <v>0.000786535554955352</v>
+        <v>0.002394956982225086</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.08165105001617334</v>
+        <v>0.3046752336162761</v>
       </c>
       <c r="J4">
-        <v>0.01107696421036053</v>
+        <v>0.02804103884288978</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5785858477136117</v>
+        <v>1.438319507967336</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.70984604405237</v>
+        <v>0.9413883067216489</v>
       </c>
       <c r="C5">
-        <v>0.7488538611516162</v>
+        <v>0.2405387474883867</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.785834563391731</v>
+        <v>0.7320617851755316</v>
       </c>
       <c r="F5">
-        <v>1.484470622194593</v>
+        <v>1.991646645391739</v>
       </c>
       <c r="G5">
-        <v>0.0007876906507394699</v>
+        <v>0.002395705886897612</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.08552820281430762</v>
+        <v>0.3073214411782148</v>
       </c>
       <c r="J5">
-        <v>0.01110105921691407</v>
+        <v>0.02820200709854959</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5795016108802997</v>
+        <v>1.446388289314598</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.69073063229456</v>
+        <v>0.935183197058393</v>
       </c>
       <c r="C6">
-        <v>0.7437458266097394</v>
+        <v>0.2388689990951036</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7808802454052852</v>
+        <v>0.7308528655964039</v>
       </c>
       <c r="F6">
-        <v>1.477130268867981</v>
+        <v>1.990690075790212</v>
       </c>
       <c r="G6">
-        <v>0.00078788365608068</v>
+        <v>0.002395831571712855</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.08618479188772676</v>
+        <v>0.3077664599698489</v>
       </c>
       <c r="J6">
-        <v>0.0111063026686864</v>
+        <v>0.02822925196640114</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.579715498332348</v>
+        <v>1.447754426385856</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.823410849744903</v>
+        <v>0.9782271503476068</v>
       </c>
       <c r="C7">
-        <v>0.7791991846754058</v>
+        <v>0.250449810098786</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.8153345573772128</v>
+        <v>0.7392703066150688</v>
       </c>
       <c r="F7">
-        <v>1.528379687283234</v>
+        <v>1.997458750085841</v>
       </c>
       <c r="G7">
-        <v>0.0007865510526737014</v>
+        <v>0.002394966993357343</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.08170247321466784</v>
+        <v>0.3047105444453977</v>
       </c>
       <c r="J7">
-        <v>0.0110772048942458</v>
+        <v>0.02804317508456045</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5785940069828825</v>
+        <v>1.43842656054899</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.409131671386433</v>
+        <v>1.167503648461377</v>
       </c>
       <c r="C8">
-        <v>0.9356708310829163</v>
+        <v>0.3013246741357989</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.9691861413042204</v>
+        <v>0.7770629013912753</v>
       </c>
       <c r="F8">
-        <v>1.762512093226718</v>
+        <v>2.030528169412079</v>
       </c>
       <c r="G8">
-        <v>0.0007808416659923337</v>
+        <v>0.002391344701266055</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.06387073073822469</v>
+        <v>0.2920445535007308</v>
       </c>
       <c r="J8">
-        <v>0.01114027797009953</v>
+        <v>0.02729737978181745</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5831474666927647</v>
+        <v>1.401104291563158</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.561498649579164</v>
+        <v>1.536138342081699</v>
       </c>
       <c r="C9">
-        <v>1.243384598576654</v>
+        <v>0.4002317111374509</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.279324698938098</v>
+        <v>0.8535037947549995</v>
       </c>
       <c r="F9">
-        <v>2.256341509814519</v>
+        <v>2.106961771863539</v>
       </c>
       <c r="G9">
-        <v>0.0007702220311236082</v>
+        <v>0.002384930196905503</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.03681879518625131</v>
+        <v>0.2701739534168772</v>
       </c>
       <c r="J9">
-        <v>0.01206572436022313</v>
+        <v>0.0261083492357912</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.6315853879642503</v>
+        <v>1.341844858408678</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.413630896179711</v>
+        <v>1.805340119875495</v>
       </c>
       <c r="C10">
-        <v>1.470855179932073</v>
+        <v>0.4723523277236836</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.514383185749764</v>
+        <v>0.9110940568714199</v>
       </c>
       <c r="F10">
-        <v>2.646631167287779</v>
+        <v>2.170267070673333</v>
       </c>
       <c r="G10">
-        <v>0.0007627312140243632</v>
+        <v>0.002380633039124305</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.02270548276844853</v>
+        <v>0.2559353741355364</v>
       </c>
       <c r="J10">
-        <v>0.01335229587449405</v>
+        <v>0.02540401904616729</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.696771272624531</v>
+        <v>1.30691763611064</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.803271679527199</v>
+        <v>1.927435620965412</v>
       </c>
       <c r="C11">
-        <v>1.574855148968595</v>
+        <v>0.5050388986937833</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.623396860392333</v>
+        <v>0.9376061060912662</v>
       </c>
       <c r="F11">
-        <v>2.831717656988729</v>
+        <v>2.200638219686113</v>
       </c>
       <c r="G11">
-        <v>0.0007593813510362029</v>
+        <v>0.002378767465089874</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01776352771808654</v>
+        <v>0.249859626009294</v>
       </c>
       <c r="J11">
-        <v>0.01409836352341642</v>
+        <v>0.02512089743249923</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7341992948929175</v>
+        <v>1.29292358111941</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.951177788270286</v>
+        <v>1.973615485958476</v>
       </c>
       <c r="C12">
-        <v>1.614331904876281</v>
+        <v>0.5173984784631784</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.665025322380046</v>
+        <v>0.947690734644155</v>
       </c>
       <c r="F12">
-        <v>2.903035197582227</v>
+        <v>2.212366617459878</v>
       </c>
       <c r="G12">
-        <v>0.0007581202699447065</v>
+        <v>0.002378073781467414</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01612564488235257</v>
+        <v>0.2476170097586472</v>
       </c>
       <c r="J12">
-        <v>0.01440670078852335</v>
+        <v>0.02501909284373305</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7496143657718477</v>
+        <v>1.287898929404733</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.919306473160134</v>
+        <v>1.96367231299439</v>
       </c>
       <c r="C13">
-        <v>1.605825363433496</v>
+        <v>0.5147374377523306</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.656043624908094</v>
+        <v>0.9455168248256314</v>
       </c>
       <c r="F13">
-        <v>2.88761854925346</v>
+        <v>2.209830558567006</v>
       </c>
       <c r="G13">
-        <v>0.0007583915500840502</v>
+        <v>0.002378222611753491</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.0164676523952636</v>
+        <v>0.2480974050790721</v>
       </c>
       <c r="J13">
-        <v>0.01433910083213519</v>
+        <v>0.0250407770480372</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7462371252236579</v>
+        <v>1.288968830987187</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.815432413420524</v>
+        <v>1.931235983530883</v>
       </c>
       <c r="C14">
-        <v>1.578100920683141</v>
+        <v>0.5060560955071196</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.626814406068277</v>
+        <v>0.9384348711550246</v>
       </c>
       <c r="F14">
-        <v>2.837559474196155</v>
+        <v>2.2015985552232</v>
       </c>
       <c r="G14">
-        <v>0.0007592774572855631</v>
+        <v>0.002378710139779695</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01762397120176473</v>
+        <v>0.2496739571078237</v>
       </c>
       <c r="J14">
-        <v>0.0141231968094182</v>
+        <v>0.02511241326914337</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.7354418622175132</v>
+        <v>1.292504684347037</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.751855308860968</v>
+        <v>1.911360553421162</v>
       </c>
       <c r="C15">
-        <v>1.561131769783344</v>
+        <v>0.5007361444378944</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.608957403464913</v>
+        <v>0.9341028406888086</v>
       </c>
       <c r="F15">
-        <v>2.807061488467042</v>
+        <v>2.196585880933128</v>
       </c>
       <c r="G15">
-        <v>0.0007598210429122417</v>
+        <v>0.002379010425876387</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01836331566680283</v>
+        <v>0.2506472241507636</v>
       </c>
       <c r="J15">
-        <v>0.01399439607188668</v>
+        <v>0.02515699810633798</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.7289950545832653</v>
+        <v>1.294706320991551</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.388213044346685</v>
+        <v>1.797353321214985</v>
       </c>
       <c r="C16">
-        <v>1.464070639258921</v>
+        <v>0.4702136836461364</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.507304782102096</v>
+        <v>0.9093677447669393</v>
       </c>
       <c r="F16">
-        <v>2.634699135635231</v>
+        <v>2.168314010961893</v>
       </c>
       <c r="G16">
-        <v>0.0007629512253222974</v>
+        <v>0.002380756748986625</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.02305994753219931</v>
+        <v>0.2563405517926998</v>
       </c>
       <c r="J16">
-        <v>0.01330699875066088</v>
+        <v>0.02542327587387483</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.6944920461808977</v>
+        <v>1.307870488012</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.165690511371736</v>
+        <v>1.727318142711113</v>
       </c>
       <c r="C17">
-        <v>1.404673582869634</v>
+        <v>0.4514575690531615</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.445510333189219</v>
+        <v>0.8942739339029799</v>
       </c>
       <c r="F17">
-        <v>2.530990536966073</v>
+        <v>2.151373983596642</v>
       </c>
       <c r="G17">
-        <v>0.0007648856897830111</v>
+        <v>0.002381850870145938</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.02633414182587757</v>
+        <v>0.2599363366065668</v>
       </c>
       <c r="J17">
-        <v>0.01292832410763722</v>
+        <v>0.02559621036086845</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6754015207263961</v>
+        <v>1.316433048781107</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.037885270229594</v>
+        <v>1.687001480284039</v>
       </c>
       <c r="C18">
-        <v>1.370557890192345</v>
+        <v>0.4406581539925014</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.410160852022869</v>
+        <v>0.8856219264861949</v>
       </c>
       <c r="F18">
-        <v>2.472040466969986</v>
+        <v>2.141778533198405</v>
       </c>
       <c r="G18">
-        <v>0.0007660038341147987</v>
+        <v>0.002382488581713696</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.02835515490272833</v>
+        <v>0.2620422990676747</v>
       </c>
       <c r="J18">
-        <v>0.01272547968846993</v>
+        <v>0.02569918406096328</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.6651448887756573</v>
+        <v>1.321536198486939</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.994642166812127</v>
+        <v>1.673345138942921</v>
       </c>
       <c r="C19">
-        <v>1.359014582876569</v>
+        <v>0.4369997206093785</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.398223914090522</v>
+        <v>0.8826975830232158</v>
       </c>
       <c r="F19">
-        <v>2.452197099256423</v>
+        <v>2.13855506003506</v>
       </c>
       <c r="G19">
-        <v>0.0007663833868517027</v>
+        <v>0.002382705944804716</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.02906249043490572</v>
+        <v>0.2627618150000268</v>
       </c>
       <c r="J19">
-        <v>0.01265929139467481</v>
+        <v>0.02573464999492003</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.6617928765349745</v>
+        <v>1.323294575856877</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.189358904444362</v>
+        <v>1.734777072802331</v>
       </c>
       <c r="C20">
-        <v>1.41099140883972</v>
+        <v>0.4534553734438305</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.452068149163367</v>
+        <v>0.8958776375899618</v>
       </c>
       <c r="F20">
-        <v>2.541957005963042</v>
+        <v>2.153161951248222</v>
       </c>
       <c r="G20">
-        <v>0.000764679200397853</v>
+        <v>0.002381733530071079</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.02597119221834632</v>
+        <v>0.259549647970613</v>
       </c>
       <c r="J20">
-        <v>0.01296706775418954</v>
+        <v>0.02557743795935075</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6773579741830957</v>
+        <v>1.315503091757037</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.845932447740495</v>
+        <v>1.940764833274329</v>
       </c>
       <c r="C21">
-        <v>1.586241542432958</v>
+        <v>0.5086065129415829</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.635389903501931</v>
+        <v>0.9405137892695734</v>
       </c>
       <c r="F21">
-        <v>2.852228446723444</v>
+        <v>2.204010309617416</v>
       </c>
       <c r="G21">
-        <v>0.0007590170501907689</v>
+        <v>0.002378566594902526</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.0172778182060247</v>
+        <v>0.2492093044550225</v>
       </c>
       <c r="J21">
-        <v>0.01418588957450595</v>
+        <v>0.02509122484912574</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7385779437574627</v>
+        <v>1.291458648877338</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.277162957644236</v>
+        <v>2.075067742792271</v>
       </c>
       <c r="C22">
-        <v>1.701337155515716</v>
+        <v>0.5445450857176866</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.757251912070529</v>
+        <v>0.9699488979020714</v>
       </c>
       <c r="F22">
-        <v>3.062252407910933</v>
+        <v>2.238569307771883</v>
       </c>
       <c r="G22">
-        <v>0.0007553594105537025</v>
+        <v>0.002376571217493167</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01296847854347671</v>
+        <v>0.2427903536795375</v>
       </c>
       <c r="J22">
-        <v>0.01513439299514374</v>
+        <v>0.02480499663708358</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7858934080365714</v>
+        <v>1.277345758862253</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.046788123136878</v>
+        <v>2.003418019261744</v>
       </c>
       <c r="C23">
-        <v>1.639850434957907</v>
+        <v>0.5253738939756545</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.69200708641965</v>
+        <v>0.9542147964622956</v>
       </c>
       <c r="F23">
-        <v>2.949444035106183</v>
+        <v>2.220002708615766</v>
       </c>
       <c r="G23">
-        <v>0.0007573079426272716</v>
+        <v>0.002377629400842005</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01513547106216517</v>
+        <v>0.2461851089602067</v>
       </c>
       <c r="J23">
-        <v>0.01461329566835445</v>
+        <v>0.02495486075554609</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7599278856243501</v>
+        <v>1.28473081755466</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.178658036892443</v>
+        <v>1.73140505387272</v>
       </c>
       <c r="C24">
-        <v>1.408135020012821</v>
+        <v>0.4525522167282361</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.449102812870336</v>
+        <v>0.895152523330438</v>
       </c>
       <c r="F24">
-        <v>2.536996978647522</v>
+        <v>2.152353163864092</v>
       </c>
       <c r="G24">
-        <v>0.0007647725354726117</v>
+        <v>0.002381786552443047</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.02613485148029682</v>
+        <v>0.2597243493896899</v>
       </c>
       <c r="J24">
-        <v>0.01294950566427033</v>
+        <v>0.02558591390364384</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6764712320100585</v>
+        <v>1.31592296348343</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.249037130088027</v>
+        <v>1.436693622159964</v>
       </c>
       <c r="C25">
-        <v>1.159962360552527</v>
+        <v>0.3735690541847703</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.194320488095627</v>
+        <v>0.8325741982617956</v>
       </c>
       <c r="F25">
-        <v>2.118414681794704</v>
+        <v>2.085035258337186</v>
       </c>
       <c r="G25">
-        <v>0.0007730371556024561</v>
+        <v>0.002386592198691313</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.04319736547986475</v>
+        <v>0.2757707097392044</v>
       </c>
       <c r="J25">
-        <v>0.01171797646128248</v>
+        <v>0.02640047472032592</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6137095645732273</v>
+        <v>1.356372568279085</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_122/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_122/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.218619848223113</v>
+        <v>3.567979309485906</v>
       </c>
       <c r="C2">
-        <v>0.31505200208872</v>
+        <v>0.9780967436013555</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.7874601494623903</v>
+        <v>1.011373552222707</v>
       </c>
       <c r="F2">
-        <v>2.040269078299843</v>
+        <v>1.828083043909302</v>
       </c>
       <c r="G2">
-        <v>0.002390410017571003</v>
+        <v>0.0007793350996498069</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2888127484026981</v>
+        <v>0.05954268878715308</v>
       </c>
       <c r="J2">
-        <v>0.02711371948510966</v>
+        <v>0.01120759786533654</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.391930064394046</v>
+        <v>0.5868654644307583</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.070181160103346</v>
+        <v>3.107488996786856</v>
       </c>
       <c r="C3">
-        <v>0.2751751077511813</v>
+        <v>0.8550961134345414</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7574822573187987</v>
+        <v>0.8896079334008675</v>
       </c>
       <c r="F3">
-        <v>2.012894732451471</v>
+        <v>1.640382656697767</v>
       </c>
       <c r="G3">
-        <v>0.002393173187529599</v>
+        <v>0.0007837492526922236</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2984102864338833</v>
+        <v>0.07267142606361965</v>
       </c>
       <c r="J3">
-        <v>0.02766705527879587</v>
+        <v>0.01107015630701014</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.419590983600742</v>
+        <v>0.5789378223912394</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9787304581741409</v>
+        <v>2.824963368356578</v>
       </c>
       <c r="C4">
-        <v>0.2505851961521728</v>
+        <v>0.7796140107701888</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.7393691555516</v>
+        <v>0.8157386227715762</v>
       </c>
       <c r="F4">
-        <v>1.99753969922665</v>
+        <v>1.528983471271474</v>
       </c>
       <c r="G4">
-        <v>0.002394956982225086</v>
+        <v>0.0007865355548845193</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3046752336162761</v>
+        <v>0.0816510500161769</v>
       </c>
       <c r="J4">
-        <v>0.02804103884288978</v>
+        <v>0.01107696421050974</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.438319507967336</v>
+        <v>0.5785858477136117</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9413883067216489</v>
+        <v>2.709846044052483</v>
       </c>
       <c r="C5">
-        <v>0.2405387474883867</v>
+        <v>0.7488538611515878</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7320617851755316</v>
+        <v>0.7858345633917025</v>
       </c>
       <c r="F5">
-        <v>1.991646645391739</v>
+        <v>1.484470622194593</v>
       </c>
       <c r="G5">
-        <v>0.002395705886897612</v>
+        <v>0.0007876906507400597</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3073214411782148</v>
+        <v>0.08552820281430318</v>
       </c>
       <c r="J5">
-        <v>0.02820200709854959</v>
+        <v>0.0111010592170615</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.446388289314598</v>
+        <v>0.5795016108802855</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.935183197058393</v>
+        <v>2.690730632294333</v>
       </c>
       <c r="C6">
-        <v>0.2388689990951036</v>
+        <v>0.7437458266094836</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7308528655964039</v>
+        <v>0.780880245405271</v>
       </c>
       <c r="F6">
-        <v>1.990690075790212</v>
+        <v>1.477130268867981</v>
       </c>
       <c r="G6">
-        <v>0.002395831571712855</v>
+        <v>0.0007878836560916595</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3077664599698489</v>
+        <v>0.08618479188772499</v>
       </c>
       <c r="J6">
-        <v>0.02822925196640114</v>
+        <v>0.01110630266858159</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.447754426385856</v>
+        <v>0.579715498332348</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9782271503476068</v>
+        <v>2.823410849744846</v>
       </c>
       <c r="C7">
-        <v>0.250449810098786</v>
+        <v>0.7791991846749227</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.7392703066150688</v>
+        <v>0.8153345573771844</v>
       </c>
       <c r="F7">
-        <v>1.997458750085841</v>
+        <v>1.52837968728322</v>
       </c>
       <c r="G7">
-        <v>0.002394966993357343</v>
+        <v>0.0007865510526605256</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3047105444453977</v>
+        <v>0.08170247321466606</v>
       </c>
       <c r="J7">
-        <v>0.02804317508456045</v>
+        <v>0.01107720489420849</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.43842656054899</v>
+        <v>0.5785940069828683</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.167503648461377</v>
+        <v>3.409131671386376</v>
       </c>
       <c r="C8">
-        <v>0.3013246741357989</v>
+        <v>0.9356708310829163</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.7770629013912753</v>
+        <v>0.9691861413042062</v>
       </c>
       <c r="F8">
-        <v>2.030528169412079</v>
+        <v>1.762512093226718</v>
       </c>
       <c r="G8">
-        <v>0.002391344701266055</v>
+        <v>0.000780841665934864</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2920445535007308</v>
+        <v>0.06387073073822469</v>
       </c>
       <c r="J8">
-        <v>0.02729737978181745</v>
+        <v>0.01114027797012085</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.401104291563158</v>
+        <v>0.5831474666928216</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.536138342081699</v>
+        <v>4.561498649579335</v>
       </c>
       <c r="C9">
-        <v>0.4002317111374509</v>
+        <v>1.243384598576711</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8535037947549995</v>
+        <v>1.279324698938112</v>
       </c>
       <c r="F9">
-        <v>2.106961771863539</v>
+        <v>2.256341509814504</v>
       </c>
       <c r="G9">
-        <v>0.002384930196905503</v>
+        <v>0.0007702220311231322</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2701739534168772</v>
+        <v>0.03681879518624864</v>
       </c>
       <c r="J9">
-        <v>0.0261083492357912</v>
+        <v>0.01206572436020892</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.341844858408678</v>
+        <v>0.6315853879642503</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.805340119875495</v>
+        <v>5.413630896179711</v>
       </c>
       <c r="C10">
-        <v>0.4723523277236836</v>
+        <v>1.470855179931903</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.9110940568714199</v>
+        <v>1.514383185749779</v>
       </c>
       <c r="F10">
-        <v>2.170267070673333</v>
+        <v>2.646631167287751</v>
       </c>
       <c r="G10">
-        <v>0.002380633039124305</v>
+        <v>0.0007627312140646159</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2559353741355364</v>
+        <v>0.02270548276844764</v>
       </c>
       <c r="J10">
-        <v>0.02540401904616729</v>
+        <v>0.01335229587454201</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.30691763611064</v>
+        <v>0.6967712726245168</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.927435620965412</v>
+        <v>5.803271679526802</v>
       </c>
       <c r="C11">
-        <v>0.5050388986937833</v>
+        <v>1.574855148968197</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.9376061060912662</v>
+        <v>1.623396860392319</v>
       </c>
       <c r="F11">
-        <v>2.200638219686113</v>
+        <v>2.831717656988701</v>
       </c>
       <c r="G11">
-        <v>0.002378767465089874</v>
+        <v>0.000759381351074959</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.249859626009294</v>
+        <v>0.01776352771808565</v>
       </c>
       <c r="J11">
-        <v>0.02512089743249923</v>
+        <v>0.01409836352346971</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.29292358111941</v>
+        <v>0.7341992948929743</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.973615485958476</v>
+        <v>5.951177788270172</v>
       </c>
       <c r="C12">
-        <v>0.5173984784631784</v>
+        <v>1.614331904876337</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.947690734644155</v>
+        <v>1.66502532238006</v>
       </c>
       <c r="F12">
-        <v>2.212366617459878</v>
+        <v>2.90303519758217</v>
       </c>
       <c r="G12">
-        <v>0.002378073781467414</v>
+        <v>0.0007581202699831698</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2476170097586472</v>
+        <v>0.01612564488234991</v>
       </c>
       <c r="J12">
-        <v>0.02501909284373305</v>
+        <v>0.0144067007886477</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.287898929404733</v>
+        <v>0.7496143657718477</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.96367231299439</v>
+        <v>5.919306473160134</v>
       </c>
       <c r="C13">
-        <v>0.5147374377523306</v>
+        <v>1.60582536343361</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.9455168248256314</v>
+        <v>1.656043624908094</v>
       </c>
       <c r="F13">
-        <v>2.209830558567006</v>
+        <v>2.887618549253432</v>
       </c>
       <c r="G13">
-        <v>0.002378222611753491</v>
+        <v>0.0007583915501216485</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2480974050790721</v>
+        <v>0.0164676523952485</v>
       </c>
       <c r="J13">
-        <v>0.0250407770480372</v>
+        <v>0.01433910083207479</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.288968830987187</v>
+        <v>0.7462371252236295</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.931235983530883</v>
+        <v>5.81543241342024</v>
       </c>
       <c r="C14">
-        <v>0.5060560955071196</v>
+        <v>1.578100920683653</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.9384348711550246</v>
+        <v>1.626814406068277</v>
       </c>
       <c r="F14">
-        <v>2.2015985552232</v>
+        <v>2.837559474196155</v>
       </c>
       <c r="G14">
-        <v>0.002378710139779695</v>
+        <v>0.0007592774572285241</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2496739571078237</v>
+        <v>0.01762397120176473</v>
       </c>
       <c r="J14">
-        <v>0.02511241326914337</v>
+        <v>0.01412319680942531</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.292504684347037</v>
+        <v>0.735441862217499</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.911360553421162</v>
+        <v>5.751855308860968</v>
       </c>
       <c r="C15">
-        <v>0.5007361444378944</v>
+        <v>1.561131769783458</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9341028406888086</v>
+        <v>1.608957403464899</v>
       </c>
       <c r="F15">
-        <v>2.196585880933128</v>
+        <v>2.807061488467014</v>
       </c>
       <c r="G15">
-        <v>0.002379010425876387</v>
+        <v>0.000759821042895359</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2506472241507636</v>
+        <v>0.01836331566680371</v>
       </c>
       <c r="J15">
-        <v>0.02515699810633798</v>
+        <v>0.01399439607195418</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.294706320991551</v>
+        <v>0.7289950545832653</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.797353321214985</v>
+        <v>5.388213044346628</v>
       </c>
       <c r="C16">
-        <v>0.4702136836461364</v>
+        <v>1.464070639258921</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.9093677447669393</v>
+        <v>1.507304782102068</v>
       </c>
       <c r="F16">
-        <v>2.168314010961893</v>
+        <v>2.634699135635231</v>
       </c>
       <c r="G16">
-        <v>0.002380756748986625</v>
+        <v>0.0007629512253211901</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2563405517926998</v>
+        <v>0.02305994753218243</v>
       </c>
       <c r="J16">
-        <v>0.02542327587387483</v>
+        <v>0.01330699875065733</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.307870488012</v>
+        <v>0.6944920461809545</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.727318142711113</v>
+        <v>5.165690511371736</v>
       </c>
       <c r="C17">
-        <v>0.4514575690531615</v>
+        <v>1.404673582869634</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.8942739339029799</v>
+        <v>1.445510333189191</v>
       </c>
       <c r="F17">
-        <v>2.151373983596642</v>
+        <v>2.530990536966044</v>
       </c>
       <c r="G17">
-        <v>0.002381850870145938</v>
+        <v>0.0007648856897424935</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2599363366065668</v>
+        <v>0.02633414182587934</v>
       </c>
       <c r="J17">
-        <v>0.02559621036086845</v>
+        <v>0.01292832410765321</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.316433048781107</v>
+        <v>0.6754015207264104</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.687001480284039</v>
+        <v>5.037885270229538</v>
       </c>
       <c r="C18">
-        <v>0.4406581539925014</v>
+        <v>1.370557890192174</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.8856219264861949</v>
+        <v>1.410160852022898</v>
       </c>
       <c r="F18">
-        <v>2.141778533198405</v>
+        <v>2.472040466969986</v>
       </c>
       <c r="G18">
-        <v>0.002382488581713696</v>
+        <v>0.000766003834154484</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2620422990676747</v>
+        <v>0.02835515490272744</v>
       </c>
       <c r="J18">
-        <v>0.02569918406096328</v>
+        <v>0.01272547968846816</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.321536198486939</v>
+        <v>0.6651448887756573</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.673345138942921</v>
+        <v>4.994642166812071</v>
       </c>
       <c r="C19">
-        <v>0.4369997206093785</v>
+        <v>1.359014582876739</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8826975830232158</v>
+        <v>1.39822391409048</v>
       </c>
       <c r="F19">
-        <v>2.13855506003506</v>
+        <v>2.452197099256452</v>
       </c>
       <c r="G19">
-        <v>0.002382705944804716</v>
+        <v>0.0007663833868497177</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2627618150000268</v>
+        <v>0.02906249043492082</v>
       </c>
       <c r="J19">
-        <v>0.02573464999492003</v>
+        <v>0.01265929139478317</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.323294575856877</v>
+        <v>0.6617928765349887</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.734777072802331</v>
+        <v>5.189358904444418</v>
       </c>
       <c r="C20">
-        <v>0.4534553734438305</v>
+        <v>1.41099140883972</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.8958776375899618</v>
+        <v>1.452068149163352</v>
       </c>
       <c r="F20">
-        <v>2.153161951248222</v>
+        <v>2.541957005963042</v>
       </c>
       <c r="G20">
-        <v>0.002381733530071079</v>
+        <v>0.0007646792003973512</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.259549647970613</v>
+        <v>0.02597119221834365</v>
       </c>
       <c r="J20">
-        <v>0.02557743795935075</v>
+        <v>0.01296706775418066</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.315503091757037</v>
+        <v>0.6773579741830815</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.940764833274329</v>
+        <v>5.845932447740495</v>
       </c>
       <c r="C21">
-        <v>0.5086065129415829</v>
+        <v>1.586241542432731</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.9405137892695734</v>
+        <v>1.635389903501931</v>
       </c>
       <c r="F21">
-        <v>2.204010309617416</v>
+        <v>2.852228446723444</v>
       </c>
       <c r="G21">
-        <v>0.002378566594902526</v>
+        <v>0.0007590170502876682</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2492093044550225</v>
+        <v>0.0172778182060247</v>
       </c>
       <c r="J21">
-        <v>0.02509122484912574</v>
+        <v>0.01418588957444555</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.291458648877338</v>
+        <v>0.7385779437574627</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.075067742792271</v>
+        <v>6.277162957643952</v>
       </c>
       <c r="C22">
-        <v>0.5445450857176866</v>
+        <v>1.70133715551583</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.9699488979020714</v>
+        <v>1.757251912070529</v>
       </c>
       <c r="F22">
-        <v>2.238569307771883</v>
+        <v>3.062252407910989</v>
       </c>
       <c r="G22">
-        <v>0.002376571217493167</v>
+        <v>0.0007553594106651387</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2427903536795375</v>
+        <v>0.01296847854348915</v>
       </c>
       <c r="J22">
-        <v>0.02480499663708358</v>
+        <v>0.01513439299507269</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.277345758862253</v>
+        <v>0.7858934080365714</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.003418019261744</v>
+        <v>6.046788123136878</v>
       </c>
       <c r="C23">
-        <v>0.5253738939756545</v>
+        <v>1.639850434957452</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.9542147964622956</v>
+        <v>1.692007086419622</v>
       </c>
       <c r="F23">
-        <v>2.220002708615766</v>
+        <v>2.949444035106211</v>
       </c>
       <c r="G23">
-        <v>0.002377629400842005</v>
+        <v>0.0007573079425712801</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2461851089602067</v>
+        <v>0.0151354710621785</v>
       </c>
       <c r="J23">
-        <v>0.02495486075554609</v>
+        <v>0.01461329566828695</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.28473081755466</v>
+        <v>0.7599278856243643</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.73140505387272</v>
+        <v>5.178658036892386</v>
       </c>
       <c r="C24">
-        <v>0.4525522167282361</v>
+        <v>1.408135020012992</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.895152523330438</v>
+        <v>1.449102812870379</v>
       </c>
       <c r="F24">
-        <v>2.152353163864092</v>
+        <v>2.536996978647494</v>
       </c>
       <c r="G24">
-        <v>0.002381786552443047</v>
+        <v>0.0007647725354716415</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2597243493896899</v>
+        <v>0.02613485148028083</v>
       </c>
       <c r="J24">
-        <v>0.02558591390364384</v>
+        <v>0.01294950566431829</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.31592296348343</v>
+        <v>0.6764712320099733</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.436693622159964</v>
+        <v>4.249037130088084</v>
       </c>
       <c r="C25">
-        <v>0.3735690541847703</v>
+        <v>1.159962360552584</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.8325741982617956</v>
+        <v>1.194320488095627</v>
       </c>
       <c r="F25">
-        <v>2.085035258337186</v>
+        <v>2.11841468179469</v>
       </c>
       <c r="G25">
-        <v>0.002386592198691313</v>
+        <v>0.0007730371555718672</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2757707097392044</v>
+        <v>0.04319736547988207</v>
       </c>
       <c r="J25">
-        <v>0.02640047472032592</v>
+        <v>0.0117179764612878</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.356372568279085</v>
+        <v>0.6137095645732273</v>
       </c>
     </row>
   </sheetData>
